--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="nailservices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -360,7 +361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -374,4 +375,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">sample </t>
   </si>
+  <si>
+    <t>hi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,7 +118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -146,10 +150,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +184,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,16 +359,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,4 +376,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="nailservices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K15"/>
 </workbook>
 </file>
 

--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="nailservices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K15"/>
+  <oleSize ref="A1:K7"/>
 </workbook>
 </file>
 
@@ -362,7 +362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -382,7 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="nailservices" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:K7"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -24,8 +24,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,10 +148,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,16 +357,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,12 +377,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="nailservices" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">sample </t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -392,10 +396,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2955" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="2955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="nailservices" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="home" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -408,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -422,4 +423,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project3/testdata/userdata1.xlsx
+++ b/Project3/testdata/userdata1.xlsx
@@ -18,12 +18,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">sample </t>
   </si>
   <si>
     <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -427,12 +430,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="7:7">
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>